--- a/PAM references.xlsx
+++ b/PAM references.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moochi\Documents\Research\R scripts\Project_2\Flourescence ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{3BD44D03-D3C7-404E-9B1C-0DFBD1B86B0C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4BEDE44-E124-44EC-B240-58D581B9377D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PAM references" sheetId="1" r:id="rId1"/>
     <sheet name="pam_ref" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="48">
   <si>
     <t>sample</t>
   </si>
@@ -170,7 +170,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1004,11 +1004,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2057,11 +2057,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2431,6 +2431,213 @@
         <v>14</v>
       </c>
     </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="C14">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="D14">
+        <v>0.157</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="G14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="C15">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="D15">
+        <v>0.216</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="G15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="C16">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="D16">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.59</v>
+      </c>
+      <c r="G16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="C17">
+        <v>5.5E-2</v>
+      </c>
+      <c r="D17">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="G17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18">
+        <v>0.09</v>
+      </c>
+      <c r="C18">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="D18">
+        <v>0.373</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="G18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="C19">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="D19">
+        <v>0.49</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.499</v>
+      </c>
+      <c r="G19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="C20">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="D20">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="G20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="C21">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="D21">
+        <v>0.157</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="G21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="C22">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D22">
+        <v>0.161</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="G22" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PAM references.xlsx
+++ b/PAM references.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moochi\Documents\Research\R scripts\Project_2\Flourescence ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4BEDE44-E124-44EC-B240-58D581B9377D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4A4457-283F-438A-9AB2-AD18E4BE9943}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1776" yWindow="2376" windowWidth="15408" windowHeight="9816" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PAM references" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="48">
   <si>
     <t>sample</t>
   </si>
@@ -2058,10 +2058,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2431,213 +2431,6 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="C14">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="D14">
-        <v>0.157</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.63500000000000001</v>
-      </c>
-      <c r="G14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="C15">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="D15">
-        <v>0.216</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.61199999999999999</v>
-      </c>
-      <c r="G15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="C16">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="D16">
-        <v>0.24399999999999999</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.59</v>
-      </c>
-      <c r="G16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="C17">
-        <v>5.5E-2</v>
-      </c>
-      <c r="D17">
-        <v>0.32600000000000001</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.57899999999999996</v>
-      </c>
-      <c r="G17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18">
-        <v>0.09</v>
-      </c>
-      <c r="C18">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="D18">
-        <v>0.373</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0.55600000000000005</v>
-      </c>
-      <c r="G18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19">
-        <v>0.10100000000000001</v>
-      </c>
-      <c r="C19">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="D19">
-        <v>0.49</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0.499</v>
-      </c>
-      <c r="G19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="C20">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="D20">
-        <v>0.16300000000000001</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.57299999999999995</v>
-      </c>
-      <c r="G20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="C21">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="D21">
-        <v>0.157</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.57899999999999996</v>
-      </c>
-      <c r="G21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="C22">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D22">
-        <v>0.161</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.57099999999999995</v>
-      </c>
-      <c r="G22" t="s">
-        <v>38</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PAM references.xlsx
+++ b/PAM references.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moochi\Documents\Research\R scripts\Project_2\Flourescence ref\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tleung1\Documents\Research\R scripts\Project_2_HABs\Fluorescence_ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4A4457-283F-438A-9AB2-AD18E4BE9943}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1776" yWindow="2376" windowWidth="15408" windowHeight="9816" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1770" yWindow="2370" windowWidth="15405" windowHeight="9810" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PAM references" sheetId="1" r:id="rId1"/>
     <sheet name="pam_ref" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -170,7 +169,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1004,16 +1003,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A31" sqref="A31:G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1042,7 +1041,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1068,7 +1067,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1094,7 +1093,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1120,7 +1119,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1146,7 +1145,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1172,7 +1171,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1198,7 +1197,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1224,7 +1223,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1250,7 +1249,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1276,7 +1275,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1302,7 +1301,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1328,7 +1327,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1354,7 +1353,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -1380,7 +1379,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1409,7 +1408,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1438,7 +1437,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -1467,7 +1466,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -1496,7 +1495,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -1525,7 +1524,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -1554,7 +1553,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -1583,7 +1582,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -1612,7 +1611,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1641,7 +1640,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -1670,7 +1669,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -1699,7 +1698,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -1728,7 +1727,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1757,7 +1756,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -1786,7 +1785,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -1815,7 +1814,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -1844,7 +1843,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -1867,7 +1866,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -1890,7 +1889,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -1913,7 +1912,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -1936,7 +1935,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -1959,7 +1958,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -1982,7 +1981,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -2005,7 +2004,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -2028,7 +2027,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>46</v>
       </c>
@@ -2057,19 +2056,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2098,7 +2097,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -2124,7 +2123,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2150,7 +2149,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -2164,7 +2163,7 @@
         <v>428</v>
       </c>
       <c r="E4">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F4">
         <v>183</v>
@@ -2176,7 +2175,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -2202,7 +2201,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -2228,7 +2227,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -2257,7 +2256,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -2286,7 +2285,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -2315,7 +2314,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -2344,7 +2343,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -2373,7 +2372,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -2402,7 +2401,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>36</v>
       </c>

--- a/PAM references.xlsx
+++ b/PAM references.xlsx
@@ -9,18 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="2370" windowWidth="15405" windowHeight="9810" activeTab="1"/>
+    <workbookView xWindow="1770" yWindow="2370" windowWidth="15405" windowHeight="9810" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PAM references" sheetId="1" r:id="rId1"/>
     <sheet name="pam_ref" sheetId="2" r:id="rId2"/>
+    <sheet name="pam_ref (2)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="50">
   <si>
     <t>sample</t>
   </si>
@@ -163,7 +164,13 @@
     <t>c9</t>
   </si>
   <si>
-    <t>non_Default</t>
+    <t>pcc7938_lake</t>
+  </si>
+  <si>
+    <t>niva_cyan_34_lake</t>
+  </si>
+  <si>
+    <t>pcc9806_lake</t>
   </si>
 </sst>
 </file>
@@ -1006,8 +1013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:G39"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection sqref="A1:I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2057,10 +2064,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="A10:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2102,19 +2109,19 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>0.1</v>
       </c>
       <c r="C2">
-        <v>30</v>
+        <v>0.03</v>
       </c>
       <c r="D2">
-        <v>129</v>
+        <v>0.129</v>
       </c>
       <c r="E2">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>673</v>
+        <v>0.67300000000000004</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -2128,19 +2135,19 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>705</v>
+        <v>0.70499999999999996</v>
       </c>
       <c r="D3">
-        <v>191</v>
+        <v>0.191</v>
       </c>
       <c r="E3">
-        <v>513</v>
+        <v>0.51300000000000001</v>
       </c>
       <c r="F3">
-        <v>292</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -2154,19 +2161,19 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>611</v>
+        <v>0.61099999999999999</v>
       </c>
       <c r="D4">
-        <v>428</v>
+        <v>0.42799999999999999</v>
       </c>
       <c r="E4">
-        <v>328</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="F4">
-        <v>183</v>
+        <v>0.183</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -2180,19 +2187,19 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>507</v>
+        <v>0.50700000000000001</v>
       </c>
       <c r="C5">
-        <v>378</v>
+        <v>0.378</v>
       </c>
       <c r="D5">
-        <v>481</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="E5">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>213</v>
+        <v>0.21299999999999999</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -2203,25 +2210,25 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>91</v>
+        <v>0.188</v>
       </c>
       <c r="C6">
-        <v>33</v>
+        <v>6.2E-2</v>
       </c>
       <c r="D6">
-        <v>149</v>
+        <v>0.36899999999999999</v>
       </c>
       <c r="E6">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>844</v>
+        <v>0.96299999999999997</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
         <v>11</v>
@@ -2229,118 +2236,712 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>356</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="C7">
-        <v>125</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="D7">
-        <v>191</v>
+        <v>0.14899999999999999</v>
       </c>
       <c r="E7">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>666</v>
+        <v>0.84399999999999997</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="H7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>79</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="C8">
-        <v>36</v>
+        <v>0.03</v>
       </c>
       <c r="D8">
-        <v>164</v>
+        <v>0.56399999999999995</v>
       </c>
       <c r="E8">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>613</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B9">
-        <v>294</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="C9">
-        <v>246</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="D9">
-        <v>928</v>
+        <v>0.82</v>
       </c>
       <c r="E9">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>432</v>
+        <v>0.42299999999999999</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="H9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="C10">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D10">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11">
+        <v>0.127</v>
+      </c>
+      <c r="C11">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="D11">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.623</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="C12">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="D12">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13">
+        <v>0.13</v>
+      </c>
+      <c r="C13">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="D13">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="C14">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="D14">
+        <v>0.218</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="G14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="C15">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="D15">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="G15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="C16">
+        <v>0.246</v>
+      </c>
+      <c r="D16">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.432</v>
+      </c>
+      <c r="G16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>34</v>
       </c>
+      <c r="B17">
+        <v>6.3E-2</v>
+      </c>
+      <c r="C17">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="D17">
+        <v>0.184</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="G17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="C18">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="D18">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="G18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="C19">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="D19">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="G19" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20">
+        <v>0.1</v>
+      </c>
+      <c r="C20">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="D20">
+        <v>0.189</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="G20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="C21">
+        <v>0.21</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="F21">
+        <v>0.22</v>
+      </c>
+      <c r="G21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>0.1</v>
+      </c>
+      <c r="C2">
+        <v>0.03</v>
+      </c>
+      <c r="D2">
+        <v>0.129</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="D3">
+        <v>0.191</v>
+      </c>
+      <c r="E3">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="F3">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="D4">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="E4">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="F4">
+        <v>0.183</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="C5">
+        <v>0.378</v>
+      </c>
+      <c r="D5">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>0.188</v>
+      </c>
+      <c r="C6">
+        <v>6.2E-2</v>
+      </c>
+      <c r="D6">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="C7">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="D7">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="C8">
+        <v>0.03</v>
+      </c>
+      <c r="D8">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="C9">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="D9">
+        <v>0.82</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
       <c r="B10">
-        <v>84</v>
+        <v>0.36699999999999999</v>
       </c>
       <c r="C10">
-        <v>58</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="D10">
-        <v>199</v>
+        <v>0.218</v>
       </c>
       <c r="E10">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>598</v>
+        <v>0.66300000000000003</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="H10" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I10">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -2348,54 +2949,54 @@
         <v>30</v>
       </c>
       <c r="B11">
-        <v>91</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="C11">
-        <v>44</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="D11">
-        <v>171</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="E11">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>612</v>
+        <v>0.61299999999999999</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="H11" t="s">
         <v>23</v>
       </c>
       <c r="I11">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B12">
-        <v>100</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="C12">
-        <v>69</v>
+        <v>0.246</v>
       </c>
       <c r="D12">
-        <v>189</v>
+        <v>0.92800000000000005</v>
       </c>
       <c r="E12">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>592</v>
+        <v>0.432</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="H12" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I12">
         <v>14</v>
@@ -2403,30 +3004,117 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="C13">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="D13">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="C14">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="D14">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="G14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15">
+        <v>0.1</v>
+      </c>
+      <c r="C15">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="D15">
+        <v>0.189</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="G15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>36</v>
       </c>
-      <c r="B13">
-        <v>163</v>
-      </c>
-      <c r="C13">
-        <v>210</v>
-      </c>
-      <c r="D13">
-        <v>1000</v>
-      </c>
-      <c r="E13">
-        <v>847</v>
-      </c>
-      <c r="F13">
-        <v>220</v>
-      </c>
-      <c r="G13" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="B16">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="C16">
+        <v>0.21</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="F16">
+        <v>0.22</v>
+      </c>
+      <c r="G16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" t="s">
         <v>21</v>
       </c>
-      <c r="I13">
+      <c r="I16">
         <v>14</v>
       </c>
     </row>
